--- a/biology/Biologie cellulaire et moléculaire/Versicane/Versicane.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Versicane/Versicane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le versicane est une protéoglycane de type sulfate de chondroïtine. Son gène est le VCAN situé sur le chromosome 5 humain.
 </t>
@@ -511,9 +523,11 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il favorise la cicatrisation par l'intermédiaire du TGF bêta[1]. Il a un rôle dans l'embryologie cardiaque, en particulier dans la formation du septum interventriculaire[2]. Il est secrété par les fibroblastes cardiaques, permettant la prolifération des cardiomyocytes par l'intermédiaire de l'activation de l'intégrine bêta 1[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il favorise la cicatrisation par l'intermédiaire du TGF bêta. Il a un rôle dans l'embryologie cardiaque, en particulier dans la formation du septum interventriculaire. Il est secrété par les fibroblastes cardiaques, permettant la prolifération des cardiomyocytes par l'intermédiaire de l'activation de l'intégrine bêta 1.
 </t>
         </is>
       </c>
